--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="150">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,18 +656,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迭代</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多个提货点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现状</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +701,22 @@
   </si>
   <si>
     <t>√ 所有规格统一设置价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选，用户不能自行选择提货点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个提货点，用户可选择多个提货点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团长直接分享帮卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团长以自己的身份，复制你的团帮卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1885,8 +1893,8 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1897,8 +1905,9 @@
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
+    <col min="9" max="9" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1918,10 +1927,10 @@
         <v>131</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1943,13 +1952,13 @@
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
@@ -1969,7 +1978,7 @@
         <v>132</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1992,13 +2001,13 @@
         <v>89</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2051,10 +2060,10 @@
         <v>133</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2071,7 +2080,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2115,7 +2124,7 @@
         <v>106</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2128,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="13" t="s">
@@ -2138,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20" t="s">
@@ -2148,7 +2157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -2156,14 +2165,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
       <c r="B20" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>120</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
         <v>126</v>
       </c>
@@ -2185,34 +2194,41 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2252,18 +2268,19 @@
     <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="162">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,14 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加上头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SH005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,6 +709,62 @@
   </si>
   <si>
     <t>团长以自己的身份，复制你的团帮卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮卖团管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发起的帮卖、我参与的帮卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可参与的帮卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮卖团长订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的自卖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活动中的订单管理（团长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只显示帮卖团长订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活动中的订单管理（帮卖团长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示我帮卖的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同步到我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可合并到我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单模块只显示我的自卖订单和帮卖团长（营长）帮卖的订单，我自己帮卖的订单则只显示在具体的某个活动中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布团购，帮卖说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -855,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,10 +1273,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1242,8 +1293,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1258,8 +1309,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1274,8 +1325,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1290,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1306,8 +1357,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1324,8 +1375,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1340,8 +1391,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
@@ -1356,8 +1407,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1372,8 +1423,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1388,8 +1439,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1404,7 +1455,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1471,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1432,8 +1483,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1450,8 +1501,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1466,8 +1517,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1482,8 +1533,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1500,8 +1551,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1516,8 +1567,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
@@ -1532,7 +1583,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1595,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1611,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1576,7 +1627,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1592,7 +1643,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1659,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1675,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1643,8 +1694,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1661,8 +1712,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1680,8 +1731,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1694,8 +1745,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1712,8 +1763,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1728,8 +1779,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1742,8 +1793,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1890,17 +1941,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1924,13 +1975,13 @@
         <v>112</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1947,104 +1998,104 @@
         <v>113</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>143</v>
-      </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
@@ -2057,13 +2108,13 @@
         <v>97</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2077,17 +2128,17 @@
         <v>99</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2098,8 +2149,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="13" t="s">
         <v>104</v>
       </c>
@@ -2108,8 +2159,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
@@ -2118,18 +2169,18 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="13" t="s">
         <v>107</v>
       </c>
@@ -2138,8 +2189,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="13" t="s">
         <v>108</v>
       </c>
@@ -2148,9 +2199,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2158,76 +2209,127 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>121</v>
+      <c r="B21" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="13" t="s">
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="13" t="s">
+    </row>
+    <row r="30" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="G30" s="13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H30" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2262,25 +2364,32 @@
     <row r="63" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H23:H24"/>
+  <mergeCells count="15">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,13 +2468,13 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能对比" sheetId="1" r:id="rId1"/>
     <sheet name="新增功能" sheetId="3" r:id="rId2"/>
-    <sheet name="涉众" sheetId="2" r:id="rId3"/>
+    <sheet name="等级权益" sheetId="4" r:id="rId3"/>
+    <sheet name="涉众" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +766,178 @@
   </si>
   <si>
     <t>发布团购，帮卖说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众会员（LV1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石会员（LV4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金会员（LV2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金会员（LV3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费返佣（比例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置几个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长值获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成为团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布并分享团购活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新200个 = 2000成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新100个 = 2000成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享官方活动并产生订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10成长值/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20成长值/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布并分享团购活动（产生订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1成长值/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2成长值/笔订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日成交总额（每达300加10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10成长值/￥300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交额60000 = 2000成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000单 = 2000成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日礼包（商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置10个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置25个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置50个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例 15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费返佣   5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置100个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费返佣   10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例 25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费返佣   15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000-12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50成长值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -903,6 +1076,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1396,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1273,10 +1449,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1293,8 +1469,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1309,8 +1485,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1325,8 +1501,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1341,8 +1517,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1357,8 +1533,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1375,8 +1551,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1391,8 +1567,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
@@ -1407,8 +1583,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1423,8 +1599,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1439,8 +1615,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1455,7 +1631,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1647,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1483,8 +1659,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1501,8 +1677,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1517,8 +1693,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1533,8 +1709,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1551,8 +1727,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1567,8 +1743,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1759,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1771,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1787,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +1803,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1643,7 +1819,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1835,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1851,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1694,8 +1870,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1712,8 +1888,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1731,8 +1907,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1745,8 +1921,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1763,8 +1939,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1779,8 +1955,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1793,8 +1969,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1943,9 +2119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2016,10 +2192,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2028,24 +2204,24 @@
       <c r="F4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -2054,48 +2230,48 @@
       <c r="F6" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
@@ -2135,10 +2311,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2149,8 +2325,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="13" t="s">
         <v>104</v>
       </c>
@@ -2159,8 +2335,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
@@ -2169,8 +2345,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="13" t="s">
         <v>106</v>
       </c>
@@ -2179,8 +2355,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="13" t="s">
         <v>107</v>
       </c>
@@ -2189,8 +2365,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="13" t="s">
         <v>108</v>
       </c>
@@ -2199,9 +2375,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2209,25 +2385,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2235,14 +2411,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="19" t="s">
         <v>154</v>
       </c>
@@ -2254,7 +2430,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="19" t="s">
         <v>156</v>
       </c>
@@ -2266,20 +2442,20 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2287,29 +2463,29 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="13" t="s">
         <v>127</v>
       </c>
@@ -2375,6 +2551,12 @@
     <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
@@ -2384,12 +2566,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,6 +2574,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="44.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>

--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,18 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务费返佣（比例）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置几个帮卖团长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直营商品分成比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成长值获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -829,10 +817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拉新团长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拉新200个 = 2000成长值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,18 +849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日成交总额（每达300加10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10成长值/￥300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交额60000 = 2000成长值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000单 = 2000成长值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -885,59 +857,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生日礼包（商品）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直营商品分成比例 10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可设置10个帮卖团长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可设置25个帮卖团长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可设置50个帮卖团长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直营商品分成比例 15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务费返佣   5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可设置100个帮卖团长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直营商品分成比例 20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务费返佣   10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直营商品分成比例 25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务费返佣   15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6000-12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置5个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置20个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置30个帮卖团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例（原基础上 +1%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发小龙直营时（10 +1.5【铂金会员专享】）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例（原基础上 +1.5%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直营商品分成比例（原基础上 +2%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新团长（注册）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50成长值/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新团长（发布并分享）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只奖励一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉新团长（新团长卖出产生订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100成长值/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置为团长，没问题一样奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日成交总额（每达200加10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10成长值/￥200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交额40000 = 2000成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通团长：50+5（发布分享活动）+ 5（单）*30*2（产生订单） = 355 ≈ 5（黄金会员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃团长：50+15（发布并分享活动）+ 30（单）*30*2（产生订单） + 40*30（营业额加成）= 3065  ≈ 0.66月（黄金会员）≈ 1.98（铂金会员）≈ 3.69（钻石会员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极团长：50+15（发布并分享活动）+ 20（单）*30*2（产生订单） + 20*30（营业额加成）= 1865 ≈ 1.07月（黄金会员）≈ 3.21（铂金会员）≈ 6.42（钻石会员）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1087,7 +1103,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,7 +1419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1449,10 +1471,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1469,8 +1491,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1485,8 +1507,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1501,8 +1523,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1517,8 +1539,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1533,8 +1555,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1551,8 +1573,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1567,8 +1589,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
@@ -1583,8 +1605,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1599,8 +1621,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1615,8 +1637,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +1653,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1669,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1659,8 +1681,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1677,8 +1699,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1693,8 +1715,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1709,8 +1731,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1727,8 +1749,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1743,8 +1765,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +1781,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1793,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1809,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1803,7 +1825,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1819,7 +1841,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +1857,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -1851,7 +1873,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1870,8 +1892,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1888,8 +1910,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1907,8 +1929,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1921,8 +1943,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1939,8 +1961,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1955,8 +1977,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1969,8 +1991,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2120,8 +2142,8 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2192,10 +2214,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2204,24 +2226,24 @@
       <c r="F4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -2230,48 +2252,48 @@
       <c r="F6" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
@@ -2311,10 +2333,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2325,8 +2347,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13" t="s">
         <v>104</v>
       </c>
@@ -2335,8 +2357,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
@@ -2345,8 +2367,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13" t="s">
         <v>106</v>
       </c>
@@ -2355,8 +2377,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13" t="s">
         <v>107</v>
       </c>
@@ -2365,8 +2387,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13" t="s">
         <v>108</v>
       </c>
@@ -2375,9 +2397,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2385,25 +2407,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2411,14 +2433,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="19" t="s">
         <v>154</v>
       </c>
@@ -2430,7 +2452,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="19" t="s">
         <v>156</v>
       </c>
@@ -2442,20 +2464,20 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2463,29 +2485,29 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="13" t="s">
         <v>127</v>
       </c>
@@ -2551,12 +2573,6 @@
     <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
@@ -2566,6 +2582,12 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2575,10 +2597,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2608,221 +2631,222 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="7" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
-        <v>197</v>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>203</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="20" t="s">
+    </row>
+    <row r="10" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
+      <c r="C14" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20" t="s">
+    <row r="19" spans="1:5" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="D20" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
       <c r="B21" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2903,21 +2927,18 @@
     <row r="110" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="112" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="10">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="210">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,6 +954,10 @@
   </si>
   <si>
     <t>积极团长：50+15（发布并分享活动）+ 20（单）*30*2（产生订单） + 20*30（营业额加成）= 1865 ≈ 1.07月（黄金会员）≈ 3.21（铂金会员）≈ 6.42（钻石会员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2573,6 +2577,12 @@
     <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
@@ -2582,12 +2592,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2600,8 +2604,8 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2707,7 +2711,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
         <v>170</v>
@@ -2929,16 +2937,16 @@
     <row r="112" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,10 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20成长值/个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布并分享团购活动（产生订单）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50成长值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6001-12000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置为团长，没问题一样奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每日成交总额（每达200加10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,6 +946,14 @@
   </si>
   <si>
     <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100成长值/个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,12 +1017,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1041,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1114,6 +1116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2577,12 +2582,6 @@
     <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
@@ -2592,6 +2591,12 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,8 +2609,8 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2617,7 +2622,7 @@
     <col min="5" max="5" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>163</v>
       </c>
@@ -2636,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>165</v>
       </c>
@@ -2647,76 +2652,76 @@
         <v>168</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
         <v>170</v>
       </c>
@@ -2724,91 +2729,109 @@
         <v>171</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="E14" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
       <c r="B17" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>202</v>
+      <c r="E17" s="20">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>199</v>
+      <c r="E18" s="21">
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="E20" s="20">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2817,17 +2840,20 @@
         <v>176</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>182</v>
+      <c r="E21" s="20">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -2835,7 +2861,7 @@
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -2843,7 +2869,7 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -2937,16 +2963,16 @@
     <row r="112" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A21"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A13:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能调研.xlsx
+++ b/功能调研.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="功能对比" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="218">
   <si>
     <t>社小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,6 +954,42 @@
   </si>
   <si>
     <t>100成长值/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">看成员个数 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接龙人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些标签（个人标签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接龙，点击查看更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞留言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,6 +1144,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,9 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,9 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1480,10 +1516,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1500,8 +1536,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1516,8 +1552,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1532,8 +1568,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1548,8 +1584,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1564,8 +1600,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1582,8 +1618,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1598,8 +1634,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
@@ -1614,8 +1650,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1630,8 +1666,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1646,8 +1682,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1662,7 +1698,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1714,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1690,8 +1726,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1708,8 +1744,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1724,8 +1760,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1740,8 +1776,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1758,8 +1794,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1774,8 +1810,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
@@ -1790,7 +1826,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1802,7 +1838,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1854,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +1870,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1886,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +1902,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1918,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1901,8 +1937,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1919,8 +1955,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1938,8 +1974,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1952,8 +1988,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1970,8 +2006,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1986,8 +2022,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2000,8 +2036,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2021,41 +2057,75 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="23"/>
+      <c r="B38" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="23"/>
+      <c r="B39" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="23"/>
+      <c r="B41" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="23"/>
+      <c r="B42" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="23"/>
+      <c r="B43" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="23"/>
+      <c r="B44" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2131,7 +2201,8 @@
       <c r="F58" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A37:A44"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -2223,10 +2294,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2235,24 +2306,24 @@
       <c r="F4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -2261,48 +2332,48 @@
       <c r="F6" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
@@ -2342,10 +2413,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2356,8 +2427,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="13" t="s">
         <v>104</v>
       </c>
@@ -2366,8 +2437,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
@@ -2376,8 +2447,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="13" t="s">
         <v>106</v>
       </c>
@@ -2386,8 +2457,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="13" t="s">
         <v>107</v>
       </c>
@@ -2396,8 +2467,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="13" t="s">
         <v>108</v>
       </c>
@@ -2406,9 +2477,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2416,25 +2487,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2442,14 +2513,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="19" t="s">
         <v>154</v>
       </c>
@@ -2461,7 +2532,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="19" t="s">
         <v>156</v>
       </c>
@@ -2473,20 +2544,20 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>124</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2494,29 +2565,29 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13" t="s">
         <v>127</v>
       </c>
@@ -2582,6 +2653,12 @@
     <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
@@ -2591,12 +2668,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2608,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
@@ -2645,10 +2716,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -2656,17 +2727,17 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="21" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -2674,8 +2745,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="20" t="s">
         <v>192</v>
       </c>
@@ -2684,17 +2755,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -2702,15 +2773,15 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="20" t="s">
         <v>185</v>
       </c>
@@ -2722,7 +2793,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>170</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -2736,7 +2807,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>172</v>
       </c>
@@ -2748,7 +2819,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>178</v>
       </c>
@@ -2762,20 +2833,20 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:5" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>194</v>
       </c>
@@ -2790,7 +2861,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="21" t="s">
         <v>196</v>
       </c>
@@ -2805,7 +2876,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="21" t="s">
         <v>198</v>
       </c>
@@ -2820,7 +2891,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>200</v>
       </c>
@@ -2835,7 +2906,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>176</v>
       </c>
@@ -2852,28 +2923,28 @@
     <row r="22" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2963,16 +3034,16 @@
     <row r="112" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
